--- a/src/excelExportAndFileIO/jeu_de_test_PL.xlsx
+++ b/src/excelExportAndFileIO/jeu_de_test_PL.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -653,7 +653,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/src/excelExportAndFileIO/jeu_de_test_PL.xlsx
+++ b/src/excelExportAndFileIO/jeu_de_test_PL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galinabikono\workspace\seleniumtest\src\excelExportAndFileIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galinabikono\workspace\gitlab\src\excelExportAndFileIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -204,9 +204,6 @@
     <t>Nr domu</t>
   </si>
   <si>
-    <t>5 rue du moulin</t>
-  </si>
-  <si>
     <t>Ulica</t>
   </si>
   <si>
@@ -253,6 +250,9 @@
   </si>
   <si>
     <t>Kod zabezpieczeń</t>
+  </si>
+  <si>
+    <t>6 rue du moulin</t>
   </si>
 </sst>
 </file>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -708,43 +708,43 @@
         <v>13</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="S1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -779,7 +779,7 @@
         <v>14</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="L2" s="2">
         <v>5</v>
@@ -788,10 +788,10 @@
         <v>43147</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P2" s="5">
         <v>42377</v>
@@ -800,10 +800,10 @@
         <v>2014</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T2" s="6">
         <v>4917610000000000</v>
